--- a/doc/Tests.xlsx
+++ b/doc/Tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>TestCase</t>
   </si>
@@ -454,12 +454,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="5" width="41.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="104.7109375" customWidth="1"/>
@@ -510,6 +511,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
@@ -524,6 +528,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -538,6 +545,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -555,6 +565,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
